--- a/assets/Template_import_siswa.xlsx
+++ b/assets/Template_import_siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamjapal/Development/Sites/multi-dashboard-al-kautsar/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1906860-BCD3-7A4A-A599-B8B7775D9019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678076D4-E0FF-8940-B4C7-384F0C6D2CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15900" activeTab="1" xr2:uid="{CA088D3B-B89D-C244-B4DB-2405571851E4}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{CA088D3B-B89D-C244-B4DB-2405571851E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Import Siswa" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>nama</t>
   </si>
@@ -140,6 +140,24 @@
   </si>
   <si>
     <t>Dilarang Keras mengubah nama Sheet</t>
+  </si>
+  <si>
+    <t>tahun_akademik</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>Kolom tahun_akademik</t>
+  </si>
+  <si>
+    <t>Kolom kelas</t>
+  </si>
+  <si>
+    <t>Masukkan dengan nama kelas sesuai dengan data di sistem</t>
+  </si>
+  <si>
+    <t>Masukkan dengan nama tahun akademik sesuai dengan data di sistem</t>
   </si>
 </sst>
 </file>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089259D2-0776-B846-8B01-83B0D481AFB2}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,9 +529,10 @@
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.83203125" customWidth="1"/>
     <col min="26" max="26" width="15.83203125" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -597,6 +616,12 @@
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -606,15 +631,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7D1B03-7251-EF48-81FF-0C4424F41273}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -641,8 +666,24 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>

--- a/assets/Template_import_siswa.xlsx
+++ b/assets/Template_import_siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamjapal/Development/Sites/multi-dashboard-al-kautsar/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678076D4-E0FF-8940-B4C7-384F0C6D2CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16892A78-94F2-5847-86F1-811E75745DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{CA088D3B-B89D-C244-B4DB-2405571851E4}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15900" xr2:uid="{CA088D3B-B89D-C244-B4DB-2405571851E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Import Siswa" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>nama</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>Masukkan dengan nama tahun akademik sesuai dengan data di sistem</t>
+  </si>
+  <si>
+    <t>alamat_tempat_tinggal</t>
+  </si>
+  <si>
+    <t>nis</t>
+  </si>
+  <si>
+    <t>tahun_masuk</t>
+  </si>
+  <si>
+    <t>nomor_va</t>
   </si>
 </sst>
 </file>
@@ -516,23 +528,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089259D2-0776-B846-8B01-83B0D481AFB2}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -543,85 +556,97 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Template_import_siswa.xlsx
+++ b/assets/Template_import_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamjapal/Development/Sites/multi-dashboard-al-kautsar/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16892A78-94F2-5847-86F1-811E75745DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFECD2-5734-E345-BF47-814B6295DBAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15900" xr2:uid="{CA088D3B-B89D-C244-B4DB-2405571851E4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>nama</t>
   </si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Dilarang Keras mengubah nama Sheet</t>
-  </si>
-  <si>
-    <t>tahun_akademik</t>
-  </si>
-  <si>
-    <t>kelas</t>
   </si>
   <si>
     <t>Kolom tahun_akademik</t>
@@ -528,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089259D2-0776-B846-8B01-83B0D481AFB2}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,11 +535,10 @@
     <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.83203125" customWidth="1"/>
     <col min="27" max="27" width="15.83203125" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -556,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -634,19 +627,13 @@
         <v>26</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -693,18 +680,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
